--- a/Report_data.xlsx
+++ b/Report_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/PythonProjects/Last_Thing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C484529D-2BD3-5B4E-BF00-FB09EF9CE67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5791AB3F-4A86-3845-A278-107B6F672913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3740" yWindow="3400" windowWidth="14400" windowHeight="7280" xr2:uid="{C426D56A-7839-4EBA-9F9C-2472685AE52E}"/>
   </bookViews>
@@ -31,10 +31,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -387,7 +383,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="A1:F6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
